--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -73449,7 +73449,7 @@
       </c>
       <c r="B6085" t="inlineStr">
         <is>
-          <t>112366.3100000000</t>
+          <t>111486.3967798360</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6086"/>
+  <dimension ref="A1:B6088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73461,7 +73461,31 @@
       </c>
       <c r="B6086" t="inlineStr">
         <is>
-          <t>111350.9900000000</t>
+          <t>113930.7484234370</t>
+        </is>
+      </c>
+    </row>
+    <row r="6087">
+      <c r="A6087" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B6087" t="inlineStr">
+        <is>
+          <t>113845.1800000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6088">
+      <c r="A6088" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B6088" t="inlineStr">
+        <is>
+          <t>114482.6900000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6088"/>
+  <dimension ref="A1:B6089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73473,7 +73473,7 @@
       </c>
       <c r="B6087" t="inlineStr">
         <is>
-          <t>113845.1800000000</t>
+          <t>115445.8129326480</t>
         </is>
       </c>
     </row>
@@ -73486,6 +73486,18 @@
       <c r="B6088" t="inlineStr">
         <is>
           <t>114482.6900000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6089">
+      <c r="A6089" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B6089" t="inlineStr">
+        <is>
+          <t>115953.2500000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6089"/>
+  <dimension ref="A1:B6090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73485,7 +73485,7 @@
       </c>
       <c r="B6088" t="inlineStr">
         <is>
-          <t>114482.6900000000</t>
+          <t>116149.1740319580</t>
         </is>
       </c>
     </row>
@@ -73498,6 +73498,18 @@
       <c r="B6089" t="inlineStr">
         <is>
           <t>115953.2500000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6090">
+      <c r="A6090" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B6090" t="inlineStr">
+        <is>
+          <t>115888.0100000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6090"/>
+  <dimension ref="A1:B6091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73497,7 +73497,7 @@
       </c>
       <c r="B6089" t="inlineStr">
         <is>
-          <t>115953.2500000000</t>
+          <t>115965.6275512680</t>
         </is>
       </c>
     </row>
@@ -73510,6 +73510,18 @@
       <c r="B6090" t="inlineStr">
         <is>
           <t>115888.0100000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6091">
+      <c r="A6091" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B6091" t="inlineStr">
+        <is>
+          <t>116060.5700000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6091"/>
+  <dimension ref="A1:B6092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73509,7 +73509,7 @@
       </c>
       <c r="B6090" t="inlineStr">
         <is>
-          <t>115888.0100000000</t>
+          <t>115395.9334234370</t>
         </is>
       </c>
     </row>
@@ -73522,6 +73522,18 @@
       <c r="B6091" t="inlineStr">
         <is>
           <t>116060.5700000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6092">
+      <c r="A6092" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B6092" t="inlineStr">
+        <is>
+          <t>115538.0000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6092"/>
+  <dimension ref="A1:B6093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73521,7 +73521,7 @@
       </c>
       <c r="B6091" t="inlineStr">
         <is>
-          <t>116060.5700000000</t>
+          <t>115420.9318141440</t>
         </is>
       </c>
     </row>
@@ -73534,6 +73534,18 @@
       <c r="B6092" t="inlineStr">
         <is>
           <t>115538.0000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6093">
+      <c r="A6093" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B6093" t="inlineStr">
+        <is>
+          <t>116885.5800000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6093"/>
+  <dimension ref="A1:B6094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73533,7 +73533,7 @@
       </c>
       <c r="B6092" t="inlineStr">
         <is>
-          <t>115538.0000000000</t>
+          <t>116798.8746201640</t>
         </is>
       </c>
     </row>
@@ -73546,6 +73546,18 @@
       <c r="B6093" t="inlineStr">
         <is>
           <t>116885.5800000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6094">
+      <c r="A6094" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B6094" t="inlineStr">
+        <is>
+          <t>116122.6200000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6094"/>
+  <dimension ref="A1:B6095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73545,7 +73545,7 @@
       </c>
       <c r="B6093" t="inlineStr">
         <is>
-          <t>116885.5800000000</t>
+          <t>116575.7776288660</t>
         </is>
       </c>
     </row>
@@ -73558,6 +73558,18 @@
       <c r="B6094" t="inlineStr">
         <is>
           <t>116122.6200000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6095">
+      <c r="A6095" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B6095" t="inlineStr">
+        <is>
+          <t>117288.0000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6095"/>
+  <dimension ref="A1:B6096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73557,7 +73557,7 @@
       </c>
       <c r="B6094" t="inlineStr">
         <is>
-          <t>116122.6200000000</t>
+          <t>117014.4267621740</t>
         </is>
       </c>
     </row>
@@ -73570,6 +73570,18 @@
       <c r="B6095" t="inlineStr">
         <is>
           <t>117288.0000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6096">
+      <c r="A6096" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B6096" t="inlineStr">
+        <is>
+          <t>115473.2500000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6096"/>
+  <dimension ref="A1:B6097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73569,7 +73569,7 @@
       </c>
       <c r="B6095" t="inlineStr">
         <is>
-          <t>117288.0000000000</t>
+          <t>115612.3725416950</t>
         </is>
       </c>
     </row>
@@ -73582,6 +73582,18 @@
       <c r="B6096" t="inlineStr">
         <is>
           <t>115473.2500000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6097">
+      <c r="A6097" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B6097" t="inlineStr">
+        <is>
+          <t>115786.3100000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6097"/>
+  <dimension ref="A1:B6098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73581,7 +73581,7 @@
       </c>
       <c r="B6096" t="inlineStr">
         <is>
-          <t>115473.2500000000</t>
+          <t>115753.1659605490</t>
         </is>
       </c>
     </row>
@@ -73594,6 +73594,18 @@
       <c r="B6097" t="inlineStr">
         <is>
           <t>115786.3100000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6098">
+      <c r="A6098" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B6098" t="inlineStr">
+        <is>
+          <t>115400.0100000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6098"/>
+  <dimension ref="A1:B6099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73593,7 +73593,7 @@
       </c>
       <c r="B6097" t="inlineStr">
         <is>
-          <t>115786.3100000000</t>
+          <t>115320.8588290470</t>
         </is>
       </c>
     </row>
@@ -73606,6 +73606,18 @@
       <c r="B6098" t="inlineStr">
         <is>
           <t>115400.0100000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6099">
+      <c r="A6099" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B6099" t="inlineStr">
+        <is>
+          <t>112885.2000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6099"/>
+  <dimension ref="A1:B6100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73605,7 +73605,7 @@
       </c>
       <c r="B6098" t="inlineStr">
         <is>
-          <t>115400.0100000000</t>
+          <t>112727.7077381300</t>
         </is>
       </c>
     </row>
@@ -73618,6 +73618,18 @@
       <c r="B6099" t="inlineStr">
         <is>
           <t>112885.2000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6100">
+      <c r="A6100" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B6100" t="inlineStr">
+        <is>
+          <t>112135.8600000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6100"/>
+  <dimension ref="A1:B6101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73617,7 +73617,7 @@
       </c>
       <c r="B6099" t="inlineStr">
         <is>
-          <t>112885.2000000000</t>
+          <t>112052.3932820220</t>
         </is>
       </c>
     </row>
@@ -73630,6 +73630,18 @@
       <c r="B6100" t="inlineStr">
         <is>
           <t>112135.8600000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6101">
+      <c r="A6101" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B6101" t="inlineStr">
+        <is>
+          <t>113431.9500000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6101"/>
+  <dimension ref="A1:B6102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73629,7 +73629,7 @@
       </c>
       <c r="B6100" t="inlineStr">
         <is>
-          <t>112135.8600000000</t>
+          <t>113324.6235921920</t>
         </is>
       </c>
     </row>
@@ -73642,6 +73642,18 @@
       <c r="B6101" t="inlineStr">
         <is>
           <t>113431.9500000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6102">
+      <c r="A6102" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B6102" t="inlineStr">
+        <is>
+          <t>109409.1300000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6102"/>
+  <dimension ref="A1:B6103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73641,7 +73641,7 @@
       </c>
       <c r="B6101" t="inlineStr">
         <is>
-          <t>113431.9500000000</t>
+          <t>109166.3479748740</t>
         </is>
       </c>
     </row>
@@ -73654,6 +73654,18 @@
       <c r="B6102" t="inlineStr">
         <is>
           <t>109409.1300000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6103">
+      <c r="A6103" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B6103" t="inlineStr">
+        <is>
+          <t>109479.9400000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6103"/>
+  <dimension ref="A1:B6104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73653,7 +73653,7 @@
       </c>
       <c r="B6102" t="inlineStr">
         <is>
-          <t>109409.1300000000</t>
+          <t>109669.1021668610</t>
         </is>
       </c>
     </row>
@@ -73666,6 +73666,18 @@
       <c r="B6103" t="inlineStr">
         <is>
           <t>109479.9400000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6104">
+      <c r="A6104" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B6104" t="inlineStr">
+        <is>
+          <t>109476.7900000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6104"/>
+  <dimension ref="A1:B6105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73665,7 +73665,7 @@
       </c>
       <c r="B6103" t="inlineStr">
         <is>
-          <t>109479.9400000000</t>
+          <t>109644.7306928700</t>
         </is>
       </c>
     </row>
@@ -73678,6 +73678,18 @@
       <c r="B6104" t="inlineStr">
         <is>
           <t>109476.7900000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6105">
+      <c r="A6105" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B6105" t="inlineStr">
+        <is>
+          <t>110938.3000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6105"/>
+  <dimension ref="A1:B6106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73677,7 +73677,7 @@
       </c>
       <c r="B6104" t="inlineStr">
         <is>
-          <t>109476.7900000000</t>
+          <t>112170.0077860900</t>
         </is>
       </c>
     </row>
@@ -73690,6 +73690,18 @@
       <c r="B6105" t="inlineStr">
         <is>
           <t>110938.3000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6106">
+      <c r="A6106" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B6106" t="inlineStr">
+        <is>
+          <t>114180.6000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6106"/>
+  <dimension ref="A1:B6107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73689,7 +73689,7 @@
       </c>
       <c r="B6105" t="inlineStr">
         <is>
-          <t>110938.3000000000</t>
+          <t>114341.1414354180</t>
         </is>
       </c>
     </row>
@@ -73702,6 +73702,18 @@
       <c r="B6106" t="inlineStr">
         <is>
           <t>114180.6000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6107">
+      <c r="A6107" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B6107" t="inlineStr">
+        <is>
+          <t>114178.9200000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6107"/>
+  <dimension ref="A1:B6108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73701,7 +73701,7 @@
       </c>
       <c r="B6106" t="inlineStr">
         <is>
-          <t>114180.6000000000</t>
+          <t>113971.7427969020</t>
         </is>
       </c>
     </row>
@@ -73714,6 +73714,18 @@
       <c r="B6107" t="inlineStr">
         <is>
           <t>114178.9200000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6108">
+      <c r="A6108" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B6108" t="inlineStr">
+        <is>
+          <t>117570.0000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6108"/>
+  <dimension ref="A1:B6109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73713,7 +73713,7 @@
       </c>
       <c r="B6107" t="inlineStr">
         <is>
-          <t>114178.9200000000</t>
+          <t>118393.2703863240</t>
         </is>
       </c>
     </row>
@@ -73726,6 +73726,18 @@
       <c r="B6108" t="inlineStr">
         <is>
           <t>117570.0000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6109">
+      <c r="A6109" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B6109" t="inlineStr">
+        <is>
+          <t>120185.5200000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6109"/>
+  <dimension ref="A1:B6110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73725,7 +73725,7 @@
       </c>
       <c r="B6108" t="inlineStr">
         <is>
-          <t>117570.0000000000</t>
+          <t>120558.5940070130</t>
         </is>
       </c>
     </row>
@@ -73738,6 +73738,18 @@
       <c r="B6109" t="inlineStr">
         <is>
           <t>120185.5200000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6110">
+      <c r="A6110" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B6110" t="inlineStr">
+        <is>
+          <t>122323.3400000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6110"/>
+  <dimension ref="A1:B6111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73737,7 +73737,7 @@
       </c>
       <c r="B6109" t="inlineStr">
         <is>
-          <t>120185.5200000000</t>
+          <t>122348.1276402690</t>
         </is>
       </c>
     </row>
@@ -73750,6 +73750,18 @@
       <c r="B6110" t="inlineStr">
         <is>
           <t>122323.3400000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6111">
+      <c r="A6111" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B6111" t="inlineStr">
+        <is>
+          <t>122196.8000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6111"/>
+  <dimension ref="A1:B6112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73749,7 +73749,7 @@
       </c>
       <c r="B6110" t="inlineStr">
         <is>
-          <t>122323.3400000000</t>
+          <t>122379.7443176510</t>
         </is>
       </c>
     </row>
@@ -73762,6 +73762,18 @@
       <c r="B6111" t="inlineStr">
         <is>
           <t>122196.8000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6112">
+      <c r="A6112" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B6112" t="inlineStr">
+        <is>
+          <t>122885.8400000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6112"/>
+  <dimension ref="A1:B6113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73761,7 +73761,7 @@
       </c>
       <c r="B6111" t="inlineStr">
         <is>
-          <t>122196.8000000000</t>
+          <t>123523.7683138520</t>
         </is>
       </c>
     </row>
@@ -73774,6 +73774,18 @@
       <c r="B6112" t="inlineStr">
         <is>
           <t>122885.8400000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6113">
+      <c r="A6113" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B6113" t="inlineStr">
+        <is>
+          <t>125190.0000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6113"/>
+  <dimension ref="A1:B6114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73773,7 +73773,7 @@
       </c>
       <c r="B6112" t="inlineStr">
         <is>
-          <t>122885.8400000000</t>
+          <t>124824.4536668610</t>
         </is>
       </c>
     </row>
@@ -73786,6 +73786,18 @@
       <c r="B6113" t="inlineStr">
         <is>
           <t>125190.0000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6114">
+      <c r="A6114" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B6114" t="inlineStr">
+        <is>
+          <t>121993.0100000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6114"/>
+  <dimension ref="A1:B6115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73785,7 +73785,7 @@
       </c>
       <c r="B6113" t="inlineStr">
         <is>
-          <t>125190.0000000000</t>
+          <t>121587.6992367040</t>
         </is>
       </c>
     </row>
@@ -73798,6 +73798,18 @@
       <c r="B6114" t="inlineStr">
         <is>
           <t>121993.0100000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6115">
+      <c r="A6115" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B6115" t="inlineStr">
+        <is>
+          <t>123321.7600000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6115"/>
+  <dimension ref="A1:B6116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73797,7 +73797,7 @@
       </c>
       <c r="B6114" t="inlineStr">
         <is>
-          <t>121993.0100000000</t>
+          <t>123390.3530946820</t>
         </is>
       </c>
     </row>
@@ -73810,6 +73810,18 @@
       <c r="B6115" t="inlineStr">
         <is>
           <t>123321.7600000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6116">
+      <c r="A6116" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B6116" t="inlineStr">
+        <is>
+          <t>121415.6800000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6116"/>
+  <dimension ref="A1:B6117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73809,7 +73809,7 @@
       </c>
       <c r="B6115" t="inlineStr">
         <is>
-          <t>123321.7600000000</t>
+          <t>121603.3327860900</t>
         </is>
       </c>
     </row>
@@ -73822,6 +73822,18 @@
       <c r="B6116" t="inlineStr">
         <is>
           <t>121415.6800000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6117">
+      <c r="A6117" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B6117" t="inlineStr">
+        <is>
+          <t>113416.9500000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6117"/>
+  <dimension ref="A1:B6118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73821,7 +73821,7 @@
       </c>
       <c r="B6116" t="inlineStr">
         <is>
-          <t>121415.6800000000</t>
+          <t>113754.8523281710</t>
         </is>
       </c>
     </row>
@@ -73834,6 +73834,18 @@
       <c r="B6117" t="inlineStr">
         <is>
           <t>113416.9500000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6118">
+      <c r="A6118" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B6118" t="inlineStr">
+        <is>
+          <t>110888.9400000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6118"/>
+  <dimension ref="A1:B6119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73833,7 +73833,7 @@
       </c>
       <c r="B6117" t="inlineStr">
         <is>
-          <t>113416.9500000000</t>
+          <t>110940.1136481590</t>
         </is>
       </c>
     </row>
@@ -73846,6 +73846,18 @@
       <c r="B6118" t="inlineStr">
         <is>
           <t>110888.9400000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6119">
+      <c r="A6119" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B6119" t="inlineStr">
+        <is>
+          <t>115481.1500000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6119"/>
+  <dimension ref="A1:B6120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73845,7 +73845,7 @@
       </c>
       <c r="B6118" t="inlineStr">
         <is>
-          <t>110888.9400000000</t>
+          <t>115152.9170450030</t>
         </is>
       </c>
     </row>
@@ -73858,6 +73858,18 @@
       <c r="B6119" t="inlineStr">
         <is>
           <t>115481.1500000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6120">
+      <c r="A6120" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B6120" t="inlineStr">
+        <is>
+          <t>115719.9900000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6120"/>
+  <dimension ref="A1:B6121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73857,7 +73857,7 @@
       </c>
       <c r="B6119" t="inlineStr">
         <is>
-          <t>115481.1500000000</t>
+          <t>115332.2529295730</t>
         </is>
       </c>
     </row>
@@ -73870,6 +73870,18 @@
       <c r="B6120" t="inlineStr">
         <is>
           <t>115719.9900000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6121">
+      <c r="A6121" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B6121" t="inlineStr">
+        <is>
+          <t>113273.8800000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6121"/>
+  <dimension ref="A1:B6122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73869,7 +73869,7 @@
       </c>
       <c r="B6120" t="inlineStr">
         <is>
-          <t>115719.9900000000</t>
+          <t>113327.0794102860</t>
         </is>
       </c>
     </row>
@@ -73882,6 +73882,18 @@
       <c r="B6121" t="inlineStr">
         <is>
           <t>113273.8800000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6122">
+      <c r="A6122" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B6122" t="inlineStr">
+        <is>
+          <t>110842.5300000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6122"/>
+  <dimension ref="A1:B6123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73881,7 +73881,7 @@
       </c>
       <c r="B6121" t="inlineStr">
         <is>
-          <t>113273.8800000000</t>
+          <t>110862.8724853890</t>
         </is>
       </c>
     </row>
@@ -73894,6 +73894,18 @@
       <c r="B6122" t="inlineStr">
         <is>
           <t>110842.5300000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6123">
+      <c r="A6123" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B6123" t="inlineStr">
+        <is>
+          <t>108416.0100000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6123"/>
+  <dimension ref="A1:B6124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73893,7 +73893,7 @@
       </c>
       <c r="B6122" t="inlineStr">
         <is>
-          <t>110842.5300000000</t>
+          <t>108135.0496057860</t>
         </is>
       </c>
     </row>
@@ -73906,6 +73906,18 @@
       <c r="B6123" t="inlineStr">
         <is>
           <t>108416.0100000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6124">
+      <c r="A6124" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B6124" t="inlineStr">
+        <is>
+          <t>107306.8200000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6124"/>
+  <dimension ref="A1:B6125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73905,7 +73905,7 @@
       </c>
       <c r="B6123" t="inlineStr">
         <is>
-          <t>108416.0100000000</t>
+          <t>106625.6686513730</t>
         </is>
       </c>
     </row>
@@ -73918,6 +73918,18 @@
       <c r="B6124" t="inlineStr">
         <is>
           <t>107306.8200000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6125">
+      <c r="A6125" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B6125" t="inlineStr">
+        <is>
+          <t>107123.8600000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6125"/>
+  <dimension ref="A1:B6126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73917,7 +73917,7 @@
       </c>
       <c r="B6124" t="inlineStr">
         <is>
-          <t>107306.8200000000</t>
+          <t>107143.9139351260</t>
         </is>
       </c>
     </row>
@@ -73930,6 +73930,18 @@
       <c r="B6125" t="inlineStr">
         <is>
           <t>107123.8600000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6126">
+      <c r="A6126" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B6126" t="inlineStr">
+        <is>
+          <t>108780.0000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6126"/>
+  <dimension ref="A1:B6127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73929,7 +73929,7 @@
       </c>
       <c r="B6125" t="inlineStr">
         <is>
-          <t>107123.8600000000</t>
+          <t>108706.6637638810</t>
         </is>
       </c>
     </row>
@@ -73942,6 +73942,18 @@
       <c r="B6126" t="inlineStr">
         <is>
           <t>108780.0000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6127">
+      <c r="A6127" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B6127" t="inlineStr">
+        <is>
+          <t>110548.5100000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6127"/>
+  <dimension ref="A1:B6128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73941,7 +73941,7 @@
       </c>
       <c r="B6126" t="inlineStr">
         <is>
-          <t>108780.0000000000</t>
+          <t>110640.2495154880</t>
         </is>
       </c>
     </row>
@@ -73954,6 +73954,18 @@
       <c r="B6127" t="inlineStr">
         <is>
           <t>110548.5100000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6128">
+      <c r="A6128" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B6128" t="inlineStr">
+        <is>
+          <t>110773.9700000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6128"/>
+  <dimension ref="A1:B6129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73953,7 +73953,7 @@
       </c>
       <c r="B6127" t="inlineStr">
         <is>
-          <t>110548.5100000000</t>
+          <t>108700.3820718880</t>
         </is>
       </c>
     </row>
@@ -73966,6 +73966,18 @@
       <c r="B6128" t="inlineStr">
         <is>
           <t>110773.9700000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6129">
+      <c r="A6129" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B6129" t="inlineStr">
+        <is>
+          <t>107268.0000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6129"/>
+  <dimension ref="A1:B6130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73965,7 +73965,7 @@
       </c>
       <c r="B6128" t="inlineStr">
         <is>
-          <t>110773.9700000000</t>
+          <t>107667.6301884860</t>
         </is>
       </c>
     </row>
@@ -73978,6 +73978,18 @@
       <c r="B6129" t="inlineStr">
         <is>
           <t>107268.0000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6130">
+      <c r="A6130" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B6130" t="inlineStr">
+        <is>
+          <t>109588.0000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6130"/>
+  <dimension ref="A1:B6132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73977,7 +73977,7 @@
       </c>
       <c r="B6129" t="inlineStr">
         <is>
-          <t>107268.0000000000</t>
+          <t>110060.9367971950</t>
         </is>
       </c>
     </row>
@@ -73989,7 +73989,31 @@
       </c>
       <c r="B6130" t="inlineStr">
         <is>
-          <t>109588.0000000000</t>
+          <t>111024.9431469900</t>
+        </is>
+      </c>
+    </row>
+    <row r="6131">
+      <c r="A6131" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B6131" t="inlineStr">
+        <is>
+          <t>111025.0900000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6132">
+      <c r="A6132" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B6132" t="inlineStr">
+        <is>
+          <t>111477.7500000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -74001,7 +74001,7 @@
       </c>
       <c r="B6131" t="inlineStr">
         <is>
-          <t>111025.0900000000</t>
+          <t>111614.5358576860</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6132"/>
+  <dimension ref="A1:B6133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74013,7 +74013,19 @@
       </c>
       <c r="B6132" t="inlineStr">
         <is>
-          <t>111477.7500000000</t>
+          <t>114557.1004605490</t>
+        </is>
+      </c>
+    </row>
+    <row r="6133">
+      <c r="A6133" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B6133" t="inlineStr">
+        <is>
+          <t>114777.3800000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6133"/>
+  <dimension ref="A1:B6134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74025,7 +74025,19 @@
       </c>
       <c r="B6133" t="inlineStr">
         <is>
-          <t>114777.3800000000</t>
+          <t>114087.7738050850</t>
+        </is>
+      </c>
+    </row>
+    <row r="6134">
+      <c r="A6134" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B6134" t="inlineStr">
+        <is>
+          <t>114095.8400000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6134"/>
+  <dimension ref="A1:B6135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74037,7 +74037,19 @@
       </c>
       <c r="B6134" t="inlineStr">
         <is>
-          <t>114095.8400000000</t>
+          <t>112980.6858462890</t>
+        </is>
+      </c>
+    </row>
+    <row r="6135">
+      <c r="A6135" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6135" t="inlineStr">
+        <is>
+          <t>113137.3700000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6135"/>
+  <dimension ref="A1:B6136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74049,7 +74049,19 @@
       </c>
       <c r="B6135" t="inlineStr">
         <is>
-          <t>113137.3700000000</t>
+          <t>110206.3479830510</t>
+        </is>
+      </c>
+    </row>
+    <row r="6136">
+      <c r="A6136" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6136" t="inlineStr">
+        <is>
+          <t>111028.1700000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6136"/>
+  <dimension ref="A1:B6137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74061,7 +74061,19 @@
       </c>
       <c r="B6136" t="inlineStr">
         <is>
-          <t>111028.1700000000</t>
+          <t>108019.7238419050</t>
+        </is>
+      </c>
+    </row>
+    <row r="6137">
+      <c r="A6137" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6137" t="inlineStr">
+        <is>
+          <t>107891.6700000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6137"/>
+  <dimension ref="A1:B6138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74073,7 +74073,19 @@
       </c>
       <c r="B6137" t="inlineStr">
         <is>
-          <t>107891.6700000000</t>
+          <t>109554.2396277030</t>
+        </is>
+      </c>
+    </row>
+    <row r="6138">
+      <c r="A6138" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B6138" t="inlineStr">
+        <is>
+          <t>109580.0100000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6138"/>
+  <dimension ref="A1:B6139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74085,7 +74085,19 @@
       </c>
       <c r="B6138" t="inlineStr">
         <is>
-          <t>109580.0100000000</t>
+          <t>110005.2958553480</t>
+        </is>
+      </c>
+    </row>
+    <row r="6139">
+      <c r="A6139" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B6139" t="inlineStr">
+        <is>
+          <t>110092.7900000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6139"/>
+  <dimension ref="A1:B6140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74097,7 +74097,19 @@
       </c>
       <c r="B6139" t="inlineStr">
         <is>
-          <t>110092.7900000000</t>
+          <t>110389.1686271190</t>
+        </is>
+      </c>
+    </row>
+    <row r="6140">
+      <c r="A6140" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B6140" t="inlineStr">
+        <is>
+          <t>110016.4800000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6140"/>
+  <dimension ref="A1:B6141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74109,7 +74109,19 @@
       </c>
       <c r="B6140" t="inlineStr">
         <is>
-          <t>110016.4800000000</t>
+          <t>106495.8027898890</t>
+        </is>
+      </c>
+    </row>
+    <row r="6141">
+      <c r="A6141" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B6141" t="inlineStr">
+        <is>
+          <t>106325.4900000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6141"/>
+  <dimension ref="A1:B6142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74121,7 +74121,19 @@
       </c>
       <c r="B6141" t="inlineStr">
         <is>
-          <t>106325.4900000000</t>
+          <t>101349.7372323200</t>
+        </is>
+      </c>
+    </row>
+    <row r="6142">
+      <c r="A6142" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B6142" t="inlineStr">
+        <is>
+          <t>101111.0100000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6142"/>
+  <dimension ref="A1:B6143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74133,7 +74133,19 @@
       </c>
       <c r="B6142" t="inlineStr">
         <is>
-          <t>101111.0100000000</t>
+          <t>103915.8847913500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6143">
+      <c r="A6143" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B6143" t="inlineStr">
+        <is>
+          <t>103804.4000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6143"/>
+  <dimension ref="A1:B6144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74145,7 +74145,19 @@
       </c>
       <c r="B6143" t="inlineStr">
         <is>
-          <t>103804.4000000000</t>
+          <t>101241.5736779660</t>
+        </is>
+      </c>
+    </row>
+    <row r="6144">
+      <c r="A6144" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B6144" t="inlineStr">
+        <is>
+          <t>101257.1600000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6144"/>
+  <dimension ref="A1:B6153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74157,7 +74157,115 @@
       </c>
       <c r="B6144" t="inlineStr">
         <is>
-          <t>101257.1600000000</t>
+          <t>103428.4717469320</t>
+        </is>
+      </c>
+    </row>
+    <row r="6145">
+      <c r="A6145" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B6145" t="inlineStr">
+        <is>
+          <t>102335.0214392170</t>
+        </is>
+      </c>
+    </row>
+    <row r="6146">
+      <c r="A6146" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B6146" t="inlineStr">
+        <is>
+          <t>104685.5454409700</t>
+        </is>
+      </c>
+    </row>
+    <row r="6147">
+      <c r="A6147" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B6147" t="inlineStr">
+        <is>
+          <t>106082.4781569260</t>
+        </is>
+      </c>
+    </row>
+    <row r="6148">
+      <c r="A6148" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B6148" t="inlineStr">
+        <is>
+          <t>102974.4056116310</t>
+        </is>
+      </c>
+    </row>
+    <row r="6149">
+      <c r="A6149" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B6149" t="inlineStr">
+        <is>
+          <t>101682.1266528350</t>
+        </is>
+      </c>
+    </row>
+    <row r="6150">
+      <c r="A6150" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B6150" t="inlineStr">
+        <is>
+          <t>100035.3101452370</t>
+        </is>
+      </c>
+    </row>
+    <row r="6151">
+      <c r="A6151" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B6151" t="inlineStr">
+        <is>
+          <t>94502.5476025716</t>
+        </is>
+      </c>
+    </row>
+    <row r="6152">
+      <c r="A6152" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B6152" t="inlineStr">
+        <is>
+          <t>95541.3158389831</t>
+        </is>
+      </c>
+    </row>
+    <row r="6153">
+      <c r="A6153" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B6153" t="inlineStr">
+        <is>
+          <t>95587.1300000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6153"/>
+  <dimension ref="A1:B6154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74265,7 +74265,19 @@
       </c>
       <c r="B6153" t="inlineStr">
         <is>
-          <t>95587.1300000000</t>
+          <t>94182.3130996493</t>
+        </is>
+      </c>
+    </row>
+    <row r="6154">
+      <c r="A6154" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B6154" t="inlineStr">
+        <is>
+          <t>93988.6700000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6154"/>
+  <dimension ref="A1:B6156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74277,7 +74277,31 @@
       </c>
       <c r="B6154" t="inlineStr">
         <is>
-          <t>93988.6700000000</t>
+          <t>91911.4713471654</t>
+        </is>
+      </c>
+    </row>
+    <row r="6155">
+      <c r="A6155" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B6155" t="inlineStr">
+        <is>
+          <t>92836.4419111631</t>
+        </is>
+      </c>
+    </row>
+    <row r="6156">
+      <c r="A6156" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B6156" t="inlineStr">
+        <is>
+          <t>93094.9100000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6156"/>
+  <dimension ref="A1:B6162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74301,7 +74301,79 @@
       </c>
       <c r="B6156" t="inlineStr">
         <is>
-          <t>93094.9100000000</t>
+          <t>91320.4811332554</t>
+        </is>
+      </c>
+    </row>
+    <row r="6157">
+      <c r="A6157" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B6157" t="inlineStr">
+        <is>
+          <t>86911.2980590298</t>
+        </is>
+      </c>
+    </row>
+    <row r="6158">
+      <c r="A6158" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B6158" t="inlineStr">
+        <is>
+          <t>84948.0463205727</t>
+        </is>
+      </c>
+    </row>
+    <row r="6159">
+      <c r="A6159" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B6159" t="inlineStr">
+        <is>
+          <t>84775.0015452952</t>
+        </is>
+      </c>
+    </row>
+    <row r="6160">
+      <c r="A6160" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B6160" t="inlineStr">
+        <is>
+          <t>86872.4546630625</t>
+        </is>
+      </c>
+    </row>
+    <row r="6161">
+      <c r="A6161" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B6161" t="inlineStr">
+        <is>
+          <t>88377.6024421391</t>
+        </is>
+      </c>
+    </row>
+    <row r="6162">
+      <c r="A6162" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B6162" t="inlineStr">
+        <is>
+          <t>88652.0000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6162"/>
+  <dimension ref="A1:B6166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74373,7 +74373,55 @@
       </c>
       <c r="B6162" t="inlineStr">
         <is>
-          <t>88652.0000000000</t>
+          <t>87434.5506107540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6163">
+      <c r="A6163" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B6163" t="inlineStr">
+        <is>
+          <t>90449.2770675044</t>
+        </is>
+      </c>
+    </row>
+    <row r="6164">
+      <c r="A6164" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B6164" t="inlineStr">
+        <is>
+          <t>91336.2000452952</t>
+        </is>
+      </c>
+    </row>
+    <row r="6165">
+      <c r="A6165" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B6165" t="inlineStr">
+        <is>
+          <t>90990.1266104617</t>
+        </is>
+      </c>
+    </row>
+    <row r="6166">
+      <c r="A6166" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B6166" t="inlineStr">
+        <is>
+          <t>91128.2800000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6166"/>
+  <dimension ref="A1:B6167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74425,6 +74425,18 @@
         </is>
       </c>
     </row>
+    <row r="6167">
+      <c r="A6167" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B6167" t="inlineStr">
+        <is>
+          <t>90744.7500000000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -74421,7 +74421,7 @@
       </c>
       <c r="B6166" t="inlineStr">
         <is>
-          <t>91128.2800000000</t>
+          <t>90842.0738243717</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6167"/>
+  <dimension ref="A1:B6170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74433,7 +74433,43 @@
       </c>
       <c r="B6167" t="inlineStr">
         <is>
-          <t>90744.7500000000</t>
+          <t>90607.7021513735</t>
+        </is>
+      </c>
+    </row>
+    <row r="6168">
+      <c r="A6168" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B6168" t="inlineStr">
+        <is>
+          <t>86504.6368156049</t>
+        </is>
+      </c>
+    </row>
+    <row r="6169">
+      <c r="A6169" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B6169" t="inlineStr">
+        <is>
+          <t>86682.4500000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6170">
+      <c r="A6170" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B6170" t="inlineStr">
+        <is>
+          <t>91968.6300000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6170"/>
+  <dimension ref="A1:B6172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74457,7 +74457,7 @@
       </c>
       <c r="B6169" t="inlineStr">
         <is>
-          <t>86682.4500000000</t>
+          <t>91528.0245809468</t>
         </is>
       </c>
     </row>
@@ -74469,7 +74469,31 @@
       </c>
       <c r="B6170" t="inlineStr">
         <is>
-          <t>91968.6300000000</t>
+          <t>93609.0938658679</t>
+        </is>
+      </c>
+    </row>
+    <row r="6171">
+      <c r="A6171" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B6171" t="inlineStr">
+        <is>
+          <t>92205.5929544126</t>
+        </is>
+      </c>
+    </row>
+    <row r="6172">
+      <c r="A6172" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B6172" t="inlineStr">
+        <is>
+          <t>92279.7300000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6172"/>
+  <dimension ref="A1:B6176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74493,7 +74493,55 @@
       </c>
       <c r="B6172" t="inlineStr">
         <is>
-          <t>92279.7300000000</t>
+          <t>89279.8344634717</t>
+        </is>
+      </c>
+    </row>
+    <row r="6173">
+      <c r="A6173" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B6173" t="inlineStr">
+        <is>
+          <t>89169.5570610754</t>
+        </is>
+      </c>
+    </row>
+    <row r="6174">
+      <c r="A6174" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B6174" t="inlineStr">
+        <is>
+          <t>90067.8473994740</t>
+        </is>
+      </c>
+    </row>
+    <row r="6175">
+      <c r="A6175" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B6175" t="inlineStr">
+        <is>
+          <t>90673.1444436003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6176">
+      <c r="A6176" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B6176" t="inlineStr">
+        <is>
+          <t>90888.3700000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6176"/>
+  <dimension ref="A1:B6179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74541,7 +74541,43 @@
       </c>
       <c r="B6176" t="inlineStr">
         <is>
-          <t>90888.3700000000</t>
+          <t>92808.8518477498</t>
+        </is>
+      </c>
+    </row>
+    <row r="6177">
+      <c r="A6177" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B6177" t="inlineStr">
+        <is>
+          <t>92102.9300917592</t>
+        </is>
+      </c>
+    </row>
+    <row r="6178">
+      <c r="A6178" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B6178" t="inlineStr">
+        <is>
+          <t>92623.7198708358</t>
+        </is>
+      </c>
+    </row>
+    <row r="6179">
+      <c r="A6179" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B6179" t="inlineStr">
+        <is>
+          <t>92583.7900000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6179"/>
+  <dimension ref="A1:B6183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74577,7 +74577,55 @@
       </c>
       <c r="B6179" t="inlineStr">
         <is>
-          <t>92583.7900000000</t>
+          <t>90331.6083091759</t>
+        </is>
+      </c>
+    </row>
+    <row r="6180">
+      <c r="A6180" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B6180" t="inlineStr">
+        <is>
+          <t>90245.2672641730</t>
+        </is>
+      </c>
+    </row>
+    <row r="6181">
+      <c r="A6181" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B6181" t="inlineStr">
+        <is>
+          <t>88096.3826142607</t>
+        </is>
+      </c>
+    </row>
+    <row r="6182">
+      <c r="A6182" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B6182" t="inlineStr">
+        <is>
+          <t>86352.5802565751</t>
+        </is>
+      </c>
+    </row>
+    <row r="6183">
+      <c r="A6183" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B6183" t="inlineStr">
+        <is>
+          <t>86230.2200000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6183"/>
+  <dimension ref="A1:B6185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74625,7 +74625,31 @@
       </c>
       <c r="B6183" t="inlineStr">
         <is>
-          <t>86230.2200000000</t>
+          <t>87752.4290336061</t>
+        </is>
+      </c>
+    </row>
+    <row r="6184">
+      <c r="A6184" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B6184" t="inlineStr">
+        <is>
+          <t>86059.5522241379</t>
+        </is>
+      </c>
+    </row>
+    <row r="6185">
+      <c r="A6185" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B6185" t="inlineStr">
+        <is>
+          <t>86236.7900000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6185"/>
+  <dimension ref="A1:B6189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74649,7 +74649,55 @@
       </c>
       <c r="B6185" t="inlineStr">
         <is>
-          <t>86236.7900000000</t>
+          <t>85434.1928673291</t>
+        </is>
+      </c>
+    </row>
+    <row r="6186">
+      <c r="A6186" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B6186" t="inlineStr">
+        <is>
+          <t>88168.0738325541</t>
+        </is>
+      </c>
+    </row>
+    <row r="6187">
+      <c r="A6187" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B6187" t="inlineStr">
+        <is>
+          <t>88292.4536373466</t>
+        </is>
+      </c>
+    </row>
+    <row r="6188">
+      <c r="A6188" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B6188" t="inlineStr">
+        <is>
+          <t>88533.4309830508</t>
+        </is>
+      </c>
+    </row>
+    <row r="6189">
+      <c r="A6189" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B6189" t="inlineStr">
+        <is>
+          <t>88515.0400000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6189"/>
+  <dimension ref="A1:B6193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74697,7 +74697,55 @@
       </c>
       <c r="B6189" t="inlineStr">
         <is>
-          <t>88515.0400000000</t>
+          <t>88474.4622331969</t>
+        </is>
+      </c>
+    </row>
+    <row r="6190">
+      <c r="A6190" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B6190" t="inlineStr">
+        <is>
+          <t>87365.9937872589</t>
+        </is>
+      </c>
+    </row>
+    <row r="6191">
+      <c r="A6191" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B6191" t="inlineStr">
+        <is>
+          <t>87625.6707895967</t>
+        </is>
+      </c>
+    </row>
+    <row r="6192">
+      <c r="A6192" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B6192" t="inlineStr">
+        <is>
+          <t>87231.3047685564</t>
+        </is>
+      </c>
+    </row>
+    <row r="6193">
+      <c r="A6193" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B6193" t="inlineStr">
+        <is>
+          <t>87566.0000000000</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_price.xlsx
+++ b/data_cripto/btc_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6193"/>
+  <dimension ref="A1:B6196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74745,7 +74745,43 @@
       </c>
       <c r="B6193" t="inlineStr">
         <is>
-          <t>87566.0000000000</t>
+          <t>87334.8077808299</t>
+        </is>
+      </c>
+    </row>
+    <row r="6194">
+      <c r="A6194" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B6194" t="inlineStr">
+        <is>
+          <t>87695.4159076564</t>
+        </is>
+      </c>
+    </row>
+    <row r="6195">
+      <c r="A6195" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B6195" t="inlineStr">
+        <is>
+          <t>87747.6491548802</t>
+        </is>
+      </c>
+    </row>
+    <row r="6196">
+      <c r="A6196" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B6196" t="inlineStr">
+        <is>
+          <t>87917.8000000000</t>
         </is>
       </c>
     </row>
